--- a/build/input/PR_downstream_computation.xlsx
+++ b/build/input/PR_downstream_computation.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hj/Documents/GitHub/JapanKoreaTradeConflict/build/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{44983F93-CDB8-E84A-B8EC-44A29BA5A49B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FF61519-0F7B-0148-8304-1DDF31A1A4AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-25600" yWindow="-3720" windowWidth="25600" windowHeight="26560" xr2:uid="{08BD22DF-2FDF-564A-A190-9D8731ABA97E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
   <si>
     <t>회사명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -122,10 +122,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Sales by region</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>US</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -139,6 +135,14 @@
   </si>
   <si>
     <t>S.Korea</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sales by region (JSR Corp)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SEMI</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -503,10 +507,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA6616FB-7F38-7E41-B98A-5B9F220694FC}">
-  <dimension ref="A2:H29"/>
+  <dimension ref="A2:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -636,68 +640,75 @@
         <v>120</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>17</v>
       </c>
       <c r="B17">
         <v>1230022</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
-        <v>23</v>
       </c>
       <c r="B25">
         <v>11.9</v>
       </c>
       <c r="C25">
-        <f>(($C$5*(10^6))/$B$16)*(B25/100)</f>
-        <v>49402850</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <f>(($C$5*(10^6))/$B$16)*(B25/100)*(100/$H$3)</f>
+        <v>197611400</v>
+      </c>
+      <c r="D25">
+        <f>C25/10^6</f>
+        <v>197.6114</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B26">
         <v>34</v>
       </c>
       <c r="C26">
-        <f t="shared" ref="C26:C29" si="0">(($C$5*(10^6))/$B$16)*(B26/100)</f>
-        <v>141151000</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <f t="shared" ref="C26:C29" si="0">(($C$5*(10^6))/$B$16)*(B26/100)*(100/$H$3)</f>
+        <v>564604000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27">
         <v>24.4</v>
       </c>
       <c r="C27">
         <f t="shared" si="0"/>
-        <v>101296600</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+        <v>405186400</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B28">
         <v>16.399999999999999</v>
       </c>
       <c r="C28">
         <f t="shared" si="0"/>
-        <v>68084599.999999985</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>272338399.99999994</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
         <v>13</v>
       </c>
@@ -706,7 +717,19 @@
       </c>
       <c r="C29">
         <f t="shared" si="0"/>
-        <v>55630100</v>
+        <v>222520400</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="C30">
+        <f>SUM(C25:C29)</f>
+        <v>1662260600</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="C31">
+        <f>B17*1000</f>
+        <v>1230022000</v>
       </c>
     </row>
   </sheetData>
